--- a/system_parameters.xlsx
+++ b/system_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\ball_on_beam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738CC177-6E67-4EEE-B6DA-7E4FDFD7966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087375B1-B05E-4436-8085-3EE9B62B741C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8574" yWindow="7314" windowWidth="17280" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="14478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>parameters</t>
   </si>
   <si>
@@ -45,21 +42,32 @@
     <t>note</t>
   </si>
   <si>
-    <t>angular velocity 10^15 during step response</t>
-  </si>
-  <si>
-    <t>based on advice from James Viollete, 10^14 angular velocity during step respons</t>
-  </si>
-  <si>
-    <t>PID Tuner for 2 response time and 0.6 robustness</t>
+    <t>angular velocity 8000 during response to 0.10</t>
+  </si>
+  <si>
+    <t>PID Tuner for 2 response time and 0.6 robustness, but the issue is its tuning for a step t o 1, and I'm only stepping to 0.1</t>
+  </si>
+  <si>
+    <t>based on advice from James Viollete, 1000 angular velocity during step respons</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,25 +388,25 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -414,7 +423,7 @@
         <v>-8</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -422,16 +431,16 @@
         <v>45660</v>
       </c>
       <c r="B6">
-        <v>-0.01</v>
+        <v>-3.2627999999999997E-2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1.8881E-3</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>-0.14096</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -439,19 +448,20 @@
         <v>45660</v>
       </c>
       <c r="B7">
-        <v>-3.2627999999999997E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="C7">
-        <v>-1.8881E-3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-0.14096</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/system_parameters.xlsx
+++ b/system_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\ball_on_beam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087375B1-B05E-4436-8085-3EE9B62B741C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D07807-B794-4E92-A144-D24E6F31D993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="14478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>parameters</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step </t>
+  </si>
+  <si>
+    <t>pid tuner -- peak: -0.6 theta, 20 omega, 0.3 torque</t>
   </si>
 </sst>
 </file>
@@ -379,23 +385,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E7"/>
+  <dimension ref="A3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -408,8 +414,11 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>45660</v>
       </c>
@@ -422,11 +431,11 @@
       <c r="D5">
         <v>-8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>45660</v>
       </c>
@@ -439,11 +448,11 @@
       <c r="D6">
         <v>-0.14096</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>45660</v>
       </c>
@@ -456,8 +465,28 @@
       <c r="D7">
         <v>-1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B8">
+        <v>-0.14788000000000001</v>
+      </c>
+      <c r="D8">
+        <v>-0.30982999999999999</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/system_parameters.xlsx
+++ b/system_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\ball_on_beam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D07807-B794-4E92-A144-D24E6F31D993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F658D93-5C72-42F3-9D7B-A59F73485559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
   <dimension ref="A3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
